--- a/record_data/code_complexity_sample.xlsx
+++ b/record_data/code_complexity_sample.xlsx
@@ -2645,7 +2645,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2653,10 +2653,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K276" sqref="K276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2702,7 +2703,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2722,7 +2723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2742,7 +2743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2762,7 +2763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2782,7 +2783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2802,7 +2803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -2822,7 +2823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -2842,7 +2843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -2862,7 +2863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -2882,7 +2883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -2902,7 +2903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -2922,7 +2923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -2942,7 +2943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -2962,7 +2963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -2982,7 +2983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -3002,7 +3003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -3022,7 +3023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -3042,7 +3043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -3062,7 +3063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -3082,7 +3083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -3102,7 +3103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -3122,7 +3123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -3142,7 +3143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -3162,7 +3163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
@@ -3182,7 +3183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -3202,7 +3203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
@@ -3222,7 +3223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
@@ -3242,7 +3243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
@@ -3262,7 +3263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
@@ -3282,7 +3283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
@@ -3302,7 +3303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>33</v>
       </c>
@@ -3322,7 +3323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>34</v>
       </c>
@@ -3342,7 +3343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>35</v>
       </c>
@@ -3391,7 +3392,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
@@ -3411,7 +3412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
@@ -3431,7 +3432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>343</v>
       </c>
@@ -3460,7 +3461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -3489,7 +3490,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
@@ -3509,7 +3510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>344</v>
       </c>
@@ -3529,7 +3530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
@@ -3549,7 +3550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>345</v>
       </c>
@@ -3569,7 +3570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>346</v>
       </c>
@@ -3589,7 +3590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>41</v>
       </c>
@@ -3609,7 +3610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>347</v>
       </c>
@@ -3629,7 +3630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>42</v>
       </c>
@@ -3649,7 +3650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>43</v>
       </c>
@@ -3669,7 +3670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>44</v>
       </c>
@@ -3689,7 +3690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>348</v>
       </c>
@@ -3709,7 +3710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>362</v>
       </c>
@@ -3738,7 +3739,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3758,7 +3759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3778,7 +3779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>365</v>
       </c>
@@ -3798,7 +3799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>47</v>
       </c>
@@ -3818,7 +3819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>366</v>
       </c>
@@ -3838,7 +3839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>48</v>
       </c>
@@ -3858,7 +3859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>49</v>
       </c>
@@ -3878,7 +3879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>51</v>
       </c>
@@ -3927,7 +3928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>368</v>
       </c>
@@ -3947,7 +3948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>369</v>
       </c>
@@ -3967,7 +3968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>53</v>
       </c>
@@ -3996,7 +3997,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>54</v>
       </c>
@@ -4016,7 +4017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>55</v>
       </c>
@@ -4036,7 +4037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>56</v>
       </c>
@@ -4056,7 +4057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>57</v>
       </c>
@@ -4076,7 +4077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>393</v>
       </c>
@@ -4096,7 +4097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>58</v>
       </c>
@@ -4116,7 +4117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>59</v>
       </c>
@@ -4136,7 +4137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>60</v>
       </c>
@@ -4156,7 +4157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>61</v>
       </c>
@@ -4176,7 +4177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>62</v>
       </c>
@@ -4196,7 +4197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>63</v>
       </c>
@@ -4216,7 +4217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>64</v>
       </c>
@@ -4236,7 +4237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>394</v>
       </c>
@@ -4256,7 +4257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>395</v>
       </c>
@@ -4276,7 +4277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>396</v>
       </c>
@@ -4325,7 +4326,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>66</v>
       </c>
@@ -4345,7 +4346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>398</v>
       </c>
@@ -4365,7 +4366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>67</v>
       </c>
@@ -4385,7 +4386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>399</v>
       </c>
@@ -4405,7 +4406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>400</v>
       </c>
@@ -4425,7 +4426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>401</v>
       </c>
@@ -4445,7 +4446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>402</v>
       </c>
@@ -4465,7 +4466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>403</v>
       </c>
@@ -4485,7 +4486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>404</v>
       </c>
@@ -4505,7 +4506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>68</v>
       </c>
@@ -4525,7 +4526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>69</v>
       </c>
@@ -4545,7 +4546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>70</v>
       </c>
@@ -4565,7 +4566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>405</v>
       </c>
@@ -4585,7 +4586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>406</v>
       </c>
@@ -4605,7 +4606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>407</v>
       </c>
@@ -4625,7 +4626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>408</v>
       </c>
@@ -4645,7 +4646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>409</v>
       </c>
@@ -4665,7 +4666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>71</v>
       </c>
@@ -4685,7 +4686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>410</v>
       </c>
@@ -4705,7 +4706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>411</v>
       </c>
@@ -4725,7 +4726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>72</v>
       </c>
@@ -4745,7 +4746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>412</v>
       </c>
@@ -4765,7 +4766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>73</v>
       </c>
@@ -4794,7 +4795,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>413</v>
       </c>
@@ -4814,7 +4815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>74</v>
       </c>
@@ -4915,7 +4916,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>415</v>
       </c>
@@ -4935,7 +4936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>416</v>
       </c>
@@ -4955,7 +4956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>417</v>
       </c>
@@ -4975,7 +4976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>418</v>
       </c>
@@ -4995,7 +4996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>78</v>
       </c>
@@ -5015,7 +5016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>79</v>
       </c>
@@ -5044,7 +5045,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>419</v>
       </c>
@@ -5073,7 +5074,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>80</v>
       </c>
@@ -5093,7 +5094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>81</v>
       </c>
@@ -5113,7 +5114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>82</v>
       </c>
@@ -5133,7 +5134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>83</v>
       </c>
@@ -5153,7 +5154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>84</v>
       </c>
@@ -5173,7 +5174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>420</v>
       </c>
@@ -5193,7 +5194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>421</v>
       </c>
@@ -5213,7 +5214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>422</v>
       </c>
@@ -5262,7 +5263,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>85</v>
       </c>
@@ -5282,7 +5283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>86</v>
       </c>
@@ -5302,7 +5303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>87</v>
       </c>
@@ -5322,7 +5323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>88</v>
       </c>
@@ -5342,7 +5343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>425</v>
       </c>
@@ -5362,7 +5363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>426</v>
       </c>
@@ -5411,7 +5412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>90</v>
       </c>
@@ -5431,7 +5432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>91</v>
       </c>
@@ -5451,7 +5452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>427</v>
       </c>
@@ -5471,7 +5472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>428</v>
       </c>
@@ -5491,7 +5492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>92</v>
       </c>
@@ -5511,7 +5512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>93</v>
       </c>
@@ -5531,7 +5532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>94</v>
       </c>
@@ -5551,7 +5552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>95</v>
       </c>
@@ -5571,7 +5572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>96</v>
       </c>
@@ -5620,7 +5621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>98</v>
       </c>
@@ -5640,7 +5641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>99</v>
       </c>
@@ -5660,7 +5661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>100</v>
       </c>
@@ -5680,7 +5681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>101</v>
       </c>
@@ -5700,7 +5701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>431</v>
       </c>
@@ -5720,7 +5721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>102</v>
       </c>
@@ -5740,7 +5741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>432</v>
       </c>
@@ -5760,7 +5761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>103</v>
       </c>
@@ -5780,7 +5781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>104</v>
       </c>
@@ -5800,7 +5801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>433</v>
       </c>
@@ -5820,7 +5821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>105</v>
       </c>
@@ -5840,7 +5841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>434</v>
       </c>
@@ -5860,7 +5861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>106</v>
       </c>
@@ -5880,7 +5881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>107</v>
       </c>
@@ -5900,7 +5901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>108</v>
       </c>
@@ -5920,7 +5921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>109</v>
       </c>
@@ -5940,7 +5941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>435</v>
       </c>
@@ -5960,7 +5961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>110</v>
       </c>
@@ -5980,7 +5981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>436</v>
       </c>
@@ -6000,7 +6001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>111</v>
       </c>
@@ -6020,7 +6021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>112</v>
       </c>
@@ -6040,7 +6041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>437</v>
       </c>
@@ -6060,7 +6061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>113</v>
       </c>
@@ -6080,7 +6081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>114</v>
       </c>
@@ -6100,7 +6101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>115</v>
       </c>
@@ -6120,7 +6121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>116</v>
       </c>
@@ -6169,7 +6170,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>118</v>
       </c>
@@ -6189,7 +6190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>119</v>
       </c>
@@ -6209,7 +6210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>439</v>
       </c>
@@ -6229,7 +6230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>120</v>
       </c>
@@ -6249,7 +6250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>440</v>
       </c>
@@ -6269,7 +6270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>121</v>
       </c>
@@ -6289,7 +6290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>122</v>
       </c>
@@ -6309,7 +6310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>123</v>
       </c>
@@ -6329,7 +6330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>124</v>
       </c>
@@ -6349,7 +6350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>441</v>
       </c>
@@ -6369,7 +6370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>442</v>
       </c>
@@ -6389,7 +6390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>125</v>
       </c>
@@ -6409,7 +6410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>126</v>
       </c>
@@ -6429,7 +6430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>127</v>
       </c>
@@ -6449,7 +6450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>443</v>
       </c>
@@ -6469,7 +6470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>128</v>
       </c>
@@ -6489,7 +6490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>129</v>
       </c>
@@ -6509,7 +6510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>444</v>
       </c>
@@ -6552,7 +6553,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>446</v>
       </c>
@@ -6572,7 +6573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>131</v>
       </c>
@@ -6592,7 +6593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>132</v>
       </c>
@@ -6612,7 +6613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>447</v>
       </c>
@@ -6632,7 +6633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>133</v>
       </c>
@@ -6652,7 +6653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>134</v>
       </c>
@@ -6672,7 +6673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>135</v>
       </c>
@@ -6692,7 +6693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>136</v>
       </c>
@@ -6735,7 +6736,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>138</v>
       </c>
@@ -6755,7 +6756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>139</v>
       </c>
@@ -6798,7 +6799,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>450</v>
       </c>
@@ -6818,7 +6819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>141</v>
       </c>
@@ -6838,7 +6839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>142</v>
       </c>
@@ -6858,7 +6859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>451</v>
       </c>
@@ -6878,7 +6879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>143</v>
       </c>
@@ -6898,7 +6899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>144</v>
       </c>
@@ -6918,7 +6919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>145</v>
       </c>
@@ -6938,7 +6939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>146</v>
       </c>
@@ -6958,7 +6959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>147</v>
       </c>
@@ -6978,7 +6979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>148</v>
       </c>
@@ -6998,7 +6999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>452</v>
       </c>
@@ -7018,7 +7019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>149</v>
       </c>
@@ -7038,7 +7039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>453</v>
       </c>
@@ -7058,7 +7059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>150</v>
       </c>
@@ -7078,7 +7079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>454</v>
       </c>
@@ -7098,7 +7099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>151</v>
       </c>
@@ -7118,7 +7119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>455</v>
       </c>
@@ -7138,7 +7139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>456</v>
       </c>
@@ -7158,7 +7159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>152</v>
       </c>
@@ -7178,7 +7179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>153</v>
       </c>
@@ -7198,7 +7199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>154</v>
       </c>
@@ -7218,7 +7219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>155</v>
       </c>
@@ -7238,7 +7239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>156</v>
       </c>
@@ -7258,7 +7259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>157</v>
       </c>
@@ -7278,7 +7279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>158</v>
       </c>
@@ -7298,7 +7299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>159</v>
       </c>
@@ -7318,7 +7319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>160</v>
       </c>
@@ -7338,7 +7339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>161</v>
       </c>
@@ -7358,7 +7359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>162</v>
       </c>
@@ -7401,7 +7402,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>164</v>
       </c>
@@ -7421,7 +7422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>165</v>
       </c>
@@ -7441,7 +7442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>166</v>
       </c>
@@ -7461,7 +7462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>167</v>
       </c>
@@ -7481,7 +7482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>458</v>
       </c>
@@ -7501,7 +7502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>168</v>
       </c>
@@ -7521,7 +7522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>169</v>
       </c>
@@ -7541,7 +7542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>170</v>
       </c>
@@ -7561,7 +7562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>459</v>
       </c>
@@ -7581,7 +7582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>460</v>
       </c>
@@ -7601,7 +7602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>172</v>
       </c>
@@ -7621,7 +7622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>173</v>
       </c>
@@ -7641,7 +7642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>174</v>
       </c>
@@ -7661,7 +7662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>175</v>
       </c>
@@ -7681,7 +7682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>176</v>
       </c>
@@ -7701,7 +7702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>177</v>
       </c>
@@ -7744,7 +7745,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>179</v>
       </c>
@@ -7764,7 +7765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>461</v>
       </c>
@@ -7784,7 +7785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>180</v>
       </c>
@@ -7804,7 +7805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>462</v>
       </c>
@@ -7824,7 +7825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>181</v>
       </c>
@@ -7844,7 +7845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>182</v>
       </c>
@@ -7864,7 +7865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>183</v>
       </c>
@@ -7884,7 +7885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>184</v>
       </c>
@@ -7904,7 +7905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>185</v>
       </c>
@@ -7924,7 +7925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>186</v>
       </c>
@@ -7944,7 +7945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>187</v>
       </c>
@@ -7964,7 +7965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>188</v>
       </c>
@@ -7984,7 +7985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>463</v>
       </c>
@@ -8004,7 +8005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>464</v>
       </c>
@@ -8024,7 +8025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>189</v>
       </c>
@@ -8044,7 +8045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>190</v>
       </c>
@@ -8064,7 +8065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>191</v>
       </c>
@@ -8084,7 +8085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>192</v>
       </c>
@@ -8104,7 +8105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>193</v>
       </c>
@@ -8124,7 +8125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>194</v>
       </c>
@@ -8144,7 +8145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>195</v>
       </c>
@@ -8164,7 +8165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>196</v>
       </c>
@@ -8184,7 +8185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>197</v>
       </c>
@@ -8204,7 +8205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>198</v>
       </c>
@@ -8224,7 +8225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>199</v>
       </c>
@@ -8244,7 +8245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>200</v>
       </c>
@@ -8287,7 +8288,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>202</v>
       </c>
@@ -8307,7 +8308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>203</v>
       </c>
@@ -8327,7 +8328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>204</v>
       </c>
@@ -8370,7 +8371,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>206</v>
       </c>
@@ -8390,7 +8391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>207</v>
       </c>
@@ -8410,7 +8411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>208</v>
       </c>
@@ -8430,7 +8431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>209</v>
       </c>
@@ -8450,7 +8451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>467</v>
       </c>
@@ -8470,7 +8471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>210</v>
       </c>
@@ -8490,7 +8491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>211</v>
       </c>
@@ -8539,7 +8540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>471</v>
       </c>
@@ -8559,7 +8560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>472</v>
       </c>
@@ -8579,7 +8580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>213</v>
       </c>
@@ -8599,7 +8600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>473</v>
       </c>
@@ -8619,7 +8620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>214</v>
       </c>
@@ -8639,7 +8640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>215</v>
       </c>
@@ -8659,7 +8660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>216</v>
       </c>
@@ -8679,7 +8680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>217</v>
       </c>
@@ -8699,7 +8700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>474</v>
       </c>
@@ -8719,7 +8720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>475</v>
       </c>
@@ -8739,7 +8740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>218</v>
       </c>
@@ -8759,7 +8760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>219</v>
       </c>
@@ -8779,7 +8780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>220</v>
       </c>
@@ -8799,7 +8800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>476</v>
       </c>
@@ -8819,7 +8820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>221</v>
       </c>
@@ -8839,7 +8840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>222</v>
       </c>
@@ -8859,7 +8860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>477</v>
       </c>
@@ -8879,7 +8880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>223</v>
       </c>
@@ -8899,7 +8900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>224</v>
       </c>
@@ -8919,7 +8920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>225</v>
       </c>
@@ -8939,7 +8940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>226</v>
       </c>
@@ -8959,7 +8960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>227</v>
       </c>
@@ -8979,7 +8980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>228</v>
       </c>
@@ -8999,7 +9000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>229</v>
       </c>
@@ -9019,7 +9020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>230</v>
       </c>
@@ -9039,7 +9040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>231</v>
       </c>
@@ -9059,7 +9060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>479</v>
       </c>
@@ -9102,7 +9103,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>232</v>
       </c>
@@ -9122,7 +9123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>233</v>
       </c>
@@ -9142,7 +9143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>234</v>
       </c>
@@ -9162,7 +9163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>235</v>
       </c>
@@ -9182,7 +9183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>236</v>
       </c>
@@ -9202,7 +9203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>482</v>
       </c>
@@ -9222,7 +9223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>237</v>
       </c>
@@ -9242,7 +9243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>238</v>
       </c>
@@ -9262,7 +9263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>239</v>
       </c>
@@ -9282,7 +9283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>240</v>
       </c>
@@ -9302,7 +9303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>241</v>
       </c>
@@ -9322,7 +9323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>483</v>
       </c>
@@ -9342,7 +9343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>242</v>
       </c>
@@ -9362,7 +9363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>243</v>
       </c>
@@ -9405,7 +9406,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>245</v>
       </c>
@@ -9454,7 +9455,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>247</v>
       </c>
@@ -9474,7 +9475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>248</v>
       </c>
@@ -9494,7 +9495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>249</v>
       </c>
@@ -9514,7 +9515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>250</v>
       </c>
@@ -9534,7 +9535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>487</v>
       </c>
@@ -9583,7 +9584,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>252</v>
       </c>
@@ -9603,7 +9604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>253</v>
       </c>
@@ -9623,7 +9624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>254</v>
       </c>
@@ -9643,7 +9644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>255</v>
       </c>
@@ -9663,7 +9664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>256</v>
       </c>
@@ -9712,7 +9713,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>258</v>
       </c>
@@ -9732,7 +9733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>259</v>
       </c>
@@ -9752,7 +9753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>260</v>
       </c>
@@ -9772,7 +9773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>261</v>
       </c>
@@ -9792,7 +9793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>490</v>
       </c>
@@ -9812,7 +9813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>262</v>
       </c>
@@ -9832,7 +9833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>263</v>
       </c>
@@ -9852,7 +9853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>264</v>
       </c>
@@ -9872,7 +9873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>265</v>
       </c>
@@ -9892,7 +9893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>266</v>
       </c>
@@ -9912,7 +9913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>267</v>
       </c>
@@ -9932,7 +9933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>491</v>
       </c>
@@ -9952,7 +9953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>492</v>
       </c>
@@ -9972,7 +9973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>268</v>
       </c>
@@ -9992,7 +9993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>269</v>
       </c>
@@ -10012,7 +10013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>493</v>
       </c>
@@ -10032,7 +10033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>494</v>
       </c>
@@ -10052,7 +10053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>270</v>
       </c>
@@ -10072,7 +10073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>271</v>
       </c>
@@ -10092,7 +10093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>272</v>
       </c>
@@ -10112,7 +10113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>273</v>
       </c>
@@ -10132,7 +10133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>274</v>
       </c>
@@ -10152,7 +10153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>275</v>
       </c>
@@ -10172,7 +10173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>276</v>
       </c>
@@ -10192,7 +10193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>495</v>
       </c>
@@ -10212,7 +10213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>277</v>
       </c>
@@ -10232,7 +10233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>278</v>
       </c>
@@ -10252,7 +10253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>279</v>
       </c>
@@ -10272,7 +10273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>280</v>
       </c>
@@ -10292,7 +10293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>281</v>
       </c>
@@ -10312,7 +10313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>282</v>
       </c>
@@ -10355,7 +10356,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>284</v>
       </c>
@@ -10375,7 +10376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>285</v>
       </c>
@@ -10395,7 +10396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>286</v>
       </c>
@@ -10415,7 +10416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>496</v>
       </c>
@@ -10435,7 +10436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>287</v>
       </c>
@@ -10455,7 +10456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>288</v>
       </c>
@@ -10475,7 +10476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>289</v>
       </c>
@@ -10495,7 +10496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>290</v>
       </c>
@@ -10515,7 +10516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>291</v>
       </c>
@@ -10535,7 +10536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>497</v>
       </c>
@@ -10555,7 +10556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>292</v>
       </c>
@@ -10575,7 +10576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>293</v>
       </c>
@@ -10595,7 +10596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>294</v>
       </c>
@@ -10615,7 +10616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>295</v>
       </c>
@@ -10635,7 +10636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>296</v>
       </c>
@@ -10655,7 +10656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>297</v>
       </c>
@@ -10675,7 +10676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>298</v>
       </c>
@@ -10695,7 +10696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>299</v>
       </c>
@@ -10715,7 +10716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>300</v>
       </c>
@@ -10735,7 +10736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>301</v>
       </c>
@@ -10755,7 +10756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>302</v>
       </c>
@@ -10775,7 +10776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>303</v>
       </c>
@@ -10795,7 +10796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>304</v>
       </c>
@@ -10815,7 +10816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>498</v>
       </c>
@@ -10835,7 +10836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>305</v>
       </c>
@@ -10855,7 +10856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>306</v>
       </c>
@@ -10875,7 +10876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>307</v>
       </c>
@@ -10895,7 +10896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>308</v>
       </c>
@@ -10915,7 +10916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>309</v>
       </c>
@@ -10958,7 +10959,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>500</v>
       </c>
@@ -10978,7 +10979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>311</v>
       </c>
@@ -10998,7 +10999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>312</v>
       </c>
@@ -11018,7 +11019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>313</v>
       </c>
@@ -11038,7 +11039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>314</v>
       </c>
@@ -11058,7 +11059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>315</v>
       </c>
@@ -11078,7 +11079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>316</v>
       </c>
@@ -11098,7 +11099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>317</v>
       </c>
@@ -11118,7 +11119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>318</v>
       </c>
@@ -11138,7 +11139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>501</v>
       </c>
@@ -11158,7 +11159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>319</v>
       </c>
@@ -11178,7 +11179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>320</v>
       </c>
@@ -11198,7 +11199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
         <v>321</v>
       </c>
@@ -11218,7 +11219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
         <v>322</v>
       </c>
@@ -11238,7 +11239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>323</v>
       </c>
@@ -11258,7 +11259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
         <v>324</v>
       </c>
@@ -11278,7 +11279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
         <v>502</v>
       </c>
@@ -11298,7 +11299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>325</v>
       </c>
@@ -11318,7 +11319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>326</v>
       </c>
@@ -11338,7 +11339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>327</v>
       </c>
@@ -11358,7 +11359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>328</v>
       </c>
@@ -11401,7 +11402,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>330</v>
       </c>
@@ -11421,7 +11422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>331</v>
       </c>
@@ -11441,7 +11442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>332</v>
       </c>
@@ -11461,7 +11462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>333</v>
       </c>
@@ -11481,10 +11482,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="F430" s="1"/>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="G431" s="1" t="s">
         <v>504</v>
       </c>
@@ -11496,7 +11497,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G431"/>
+  <autoFilter ref="A1:G431">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="0"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
